--- a/data/trans_camb/P24_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,64</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>19,38</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,48</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>19,03</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 3,11</t>
+          <t>-18,46; 5,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 6,35</t>
+          <t>-10,85; 11,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 3,91</t>
+          <t>-13,53; 7,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 15,1</t>
+          <t>4,1; 39,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 8,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 6,51</t>
+          <t>-9,67; 13,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 23,35</t>
+          <t>-7,1; 12,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 4,16</t>
+          <t>-8,35; 10,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 5,55</t>
+          <t>7,28; 32,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 16,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 7,22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 10,0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; 7,1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 29,44</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-25,19%</t>
+          <t>-24,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,6%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,4%</t>
+          <t>-12,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>68,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-5,54%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>72,61%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 16,32</t>
+          <t>-57,0; 36,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 30,66</t>
+          <t>-33,28; 67,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 18,67</t>
+          <t>-43,06; 44,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 75,87</t>
+          <t>8,54; 232,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 38,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 35,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 25,79</t>
+          <t>-28,35; 60,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 88,9</t>
+          <t>-20,07; 55,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 16,76</t>
+          <t>-22,84; 51,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 21,93</t>
+          <t>20,83; 144,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 11,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 69,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,16; 33,04</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 48,89</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-23,33; 38,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27,79; 134,6</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,91</t>
+          <t>3,84; 18,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 9,18</t>
+          <t>0,57; 11,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,44</t>
+          <t>-2,27; 8,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 15,48</t>
+          <t>4,78; 20,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -1,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 1,86</t>
+          <t>-11,7; 2,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 15,33</t>
+          <t>-15,94; -1,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 7,09</t>
+          <t>-13,04; 0,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,39</t>
+          <t>-8,98; 6,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 13,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 8,73</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 2,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 2,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 10,39</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>69,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>74,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-9,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>-22,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>-15,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-6,68%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-8,19%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 94,33</t>
+          <t>20,45; 160,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 63,66</t>
+          <t>2,97; 99,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 41,95</t>
+          <t>-12,25; 72,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,83; 103,59</t>
+          <t>21,91; 160,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 8,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,73; -3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 5,64</t>
+          <t>-26,66; 7,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 44,55</t>
+          <t>-36,35; -5,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 28,46</t>
+          <t>-29,46; 0,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 9,09</t>
+          <t>-20,99; 19,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 8,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,75; 52,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 36,06</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; 11,4</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-22,18; 10,24</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 40,72</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,55</t>
+          <t>-9,09; 6,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 2,93</t>
+          <t>-9,53; 5,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -0,21</t>
+          <t>-12,93; 0,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 6,51</t>
+          <t>-10,03; 6,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 2,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 3,82</t>
+          <t>-9,75; 6,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 7,36</t>
+          <t>-8,64; 6,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 2,36</t>
+          <t>-8,56; 6,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 0,88</t>
+          <t>-11,0; 4,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 0,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 5,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 4,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,62; 4,67</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 0,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 3,47</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,81%</t>
+          <t>-9,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,96%</t>
+          <t>-25,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,87%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-11,29%</t>
+          <t>-9,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-6,3%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-9,67%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 29,71</t>
+          <t>-35,92; 35,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 16,45</t>
+          <t>-35,71; 28,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,61; -0,54</t>
+          <t>-46,29; 6,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 34,13</t>
+          <t>-37,67; 40,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 8,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 8,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 13,18</t>
+          <t>-26,33; 23,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 24,98</t>
+          <t>-22,75; 25,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 9,32</t>
+          <t>-23,15; 23,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 3,41</t>
+          <t>-30,53; 17,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 20,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,26; 18,7</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-22,0; 20,13</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-28,16; 3,43</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-27,19; 14,92</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,81</t>
+          <t>-0,15; 10,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 4,41</t>
+          <t>-6,39; 4,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,92</t>
+          <t>-0,94; 10,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 0,57</t>
+          <t>-5,31; 5,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 12,22</t>
+          <t>-8,14; 3,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,14</t>
+          <t>-4,27; 8,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 6,75</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 2,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 7,5</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,76%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-7,49%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 36,62</t>
+          <t>-1,12; 56,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 24,23</t>
+          <t>-29,01; 24,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 8,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 57,63</t>
+          <t>-4,59; 57,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 5,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 1,97</t>
+          <t>-15,73; 16,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,95; 38,12</t>
+          <t>-23,91; 11,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 11,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 4,38</t>
+          <t>-12,33; 27,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,36; 40,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 26,83</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-22,3; 10,39</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 29,88</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 7,79</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 4,28</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 1,46</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 11,24</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 2,54</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 0,49</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 1,08</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 6,86</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 4,1</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 1,53</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 0,52</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 7,81</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,38%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>32,96%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-8,53%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-5,8%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-6,82%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 43,1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-11,53; 23,2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-22,43; 7,86</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 59,64</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 8,13</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 1,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,75; 3,38</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 22,12</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 15,69</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 5,92</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 2,0</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 30,19</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
